--- a/data/step1.xlsx
+++ b/data/step1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,16 +449,6 @@
           <t>End Time</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>First Stop ID</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Last Stop ID</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,16 +466,6 @@
           <t>0.11:39</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -503,16 +483,6 @@
           <t>0.23:21</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,16 +500,6 @@
           <t>0.10:28</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VaLO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -557,16 +517,6 @@
           <t>0.23:23</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,16 +534,6 @@
           <t>0.12:22</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -611,16 +551,6 @@
           <t>0.23:45</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -638,16 +568,6 @@
           <t>0.11:38</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -665,16 +585,6 @@
           <t>0.22:23</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -692,16 +602,6 @@
           <t>0.12:02</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -719,16 +619,6 @@
           <t>0.23:19</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -746,16 +636,6 @@
           <t>0.11:43</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -773,16 +653,6 @@
           <t>0.22:48</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -800,16 +670,6 @@
           <t>0.12:01</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -827,16 +687,6 @@
           <t>0.22:17</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -854,16 +704,6 @@
           <t>0.11:58</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -881,16 +721,6 @@
           <t>0.23:26</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -908,16 +738,6 @@
           <t>0.12:52</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -935,16 +755,6 @@
           <t>0.21:53</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -962,16 +772,6 @@
           <t>0.12:57</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -989,16 +789,6 @@
           <t>0.22:58</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1016,16 +806,6 @@
           <t>0.13:33</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1043,16 +823,6 @@
           <t>0.22:22</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1070,16 +840,6 @@
           <t>0.12:23</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>VaLO</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1097,16 +857,6 @@
           <t>1.00:42</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1124,16 +874,6 @@
           <t>0.13:28</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1151,16 +891,6 @@
           <t>0.23:50</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1178,16 +908,6 @@
           <t>1.00:26</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1205,16 +925,6 @@
           <t>0.22:49</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1232,16 +942,6 @@
           <t>1.01:05</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1259,16 +959,6 @@
           <t>1.01:13</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1286,16 +976,6 @@
           <t>1.00:05</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>MTCLO</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1313,16 +993,6 @@
           <t>0.23:45</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1340,16 +1010,6 @@
           <t>1.00:03</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1367,16 +1027,6 @@
           <t>0.19:39</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1394,16 +1044,6 @@
           <t>0.20:12</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>VaLO</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1421,16 +1061,6 @@
           <t>0.20:22</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>VaLO</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1448,16 +1078,6 @@
           <t>0.19:05</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1475,16 +1095,6 @@
           <t>0.19:09</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1502,16 +1112,6 @@
           <t>0.19:04</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1529,16 +1129,6 @@
           <t>0.19:03</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1556,16 +1146,6 @@
           <t>0.19:18</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1583,16 +1163,6 @@
           <t>0.19:23</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1610,16 +1180,6 @@
           <t>0.19:10</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1637,16 +1197,6 @@
           <t>0.19:19</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1664,16 +1214,6 @@
           <t>0.19:25</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1691,16 +1231,6 @@
           <t>0.19:35</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1718,16 +1248,6 @@
           <t>0.19:33</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1745,16 +1265,6 @@
           <t>0.19:38</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1772,16 +1282,6 @@
           <t>0.19:42</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1799,16 +1299,6 @@
           <t>0.19:34</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1826,16 +1316,6 @@
           <t>0.19:47</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1853,16 +1333,6 @@
           <t>0.19:05</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1880,16 +1350,6 @@
           <t>0.19:51</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1907,16 +1367,6 @@
           <t>0.19:54</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1934,16 +1384,6 @@
           <t>0.19:58</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1961,16 +1401,6 @@
           <t>0.20:02</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1988,16 +1418,6 @@
           <t>0.20:07</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2015,16 +1435,6 @@
           <t>0.20:44</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2042,16 +1452,6 @@
           <t>0.20:42</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>ToMa</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2069,16 +1469,6 @@
           <t>0.13:33</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>MTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2096,16 +1486,6 @@
           <t>0.19:19</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2123,16 +1503,6 @@
           <t>0.17:05</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2150,16 +1520,6 @@
           <t>0.22:59</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>DuDs</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2177,16 +1537,6 @@
           <t>0.12:43</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2204,16 +1554,6 @@
           <t>0.14:03</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>CiCLO</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2231,16 +1571,6 @@
           <t>0.13:28</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2258,16 +1588,6 @@
           <t>0.14:13</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2285,16 +1605,6 @@
           <t>0.13:02</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2312,16 +1622,6 @@
           <t>0.13:45</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2339,16 +1639,6 @@
           <t>0.13:16</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>VaLO</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2366,16 +1656,6 @@
           <t>0.15:09</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>VaLO</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2393,16 +1673,6 @@
           <t>0.13:56</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2420,16 +1690,6 @@
           <t>0.13:39</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2447,16 +1707,6 @@
           <t>0.13:47</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>MTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2474,16 +1724,6 @@
           <t>0.13:26</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>PHMLO</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2501,16 +1741,6 @@
           <t>0.15:16</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2528,16 +1758,6 @@
           <t>0.13:13</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2555,16 +1775,6 @@
           <t>0.15:00</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2582,16 +1792,6 @@
           <t>0.16:03</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>MTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2609,16 +1809,6 @@
           <t>0.15:15</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2636,16 +1826,6 @@
           <t>0.16:28</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2663,16 +1843,6 @@
           <t>0.17:01</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2690,16 +1860,6 @@
           <t>0.16:17</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2717,16 +1877,6 @@
           <t>0.14:53</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2744,16 +1894,6 @@
           <t>0.14:28</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2771,16 +1911,6 @@
           <t>0.17:39</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2798,16 +1928,6 @@
           <t>0.17:30</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2825,16 +1945,6 @@
           <t>0.16:50</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2852,16 +1962,6 @@
           <t>0.15:52</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2879,16 +1979,6 @@
           <t>0.20:32</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>VaLO</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2906,16 +1996,6 @@
           <t>0.21:33</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2933,16 +2013,6 @@
           <t>0.20:23</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>VaLO</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2960,16 +2030,6 @@
           <t>0.21:02</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>VaLO</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2987,16 +2047,6 @@
           <t>0.20:52</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3014,16 +2064,6 @@
           <t>0.21:06</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3041,16 +2081,6 @@
           <t>0.20:51</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>MTCLO</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3068,16 +2098,6 @@
           <t>0.21:56</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3095,16 +2115,6 @@
           <t>0.20:46</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3122,16 +2132,6 @@
           <t>0.22:02</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3149,16 +2149,6 @@
           <t>0.21:49</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>VaLO</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3176,16 +2166,6 @@
           <t>0.21:01</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3203,16 +2183,6 @@
           <t>0.22:01</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3230,16 +2200,6 @@
           <t>0.23:02</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3257,16 +2217,6 @@
           <t>0.23:17</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>EMSLO</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3284,16 +2234,6 @@
           <t>0.22:32</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3311,16 +2251,6 @@
           <t>0.21:21</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3338,16 +2268,6 @@
           <t>0.22:57</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3365,16 +2285,6 @@
           <t>0.21:55</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>PHMLO</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3392,16 +2302,6 @@
           <t>0.22:19</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3419,16 +2319,6 @@
           <t>0.09:50</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3446,16 +2336,6 @@
           <t>0.12:04</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>ToMa</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3473,16 +2353,6 @@
           <t>0.10:40</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>DuDs</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3500,16 +2370,6 @@
           <t>0.17:08</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>ToMa</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3527,16 +2387,6 @@
           <t>0.08:56</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3554,16 +2404,6 @@
           <t>0.13:56</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>DuDs</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3581,16 +2421,6 @@
           <t>0.16:20</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>ToMa</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3608,16 +2438,6 @@
           <t>0.15:32</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>DuDs</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3635,16 +2455,6 @@
           <t>0.17:21</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3662,16 +2472,6 @@
           <t>0.15:32</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>ToMa</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3689,16 +2489,6 @@
           <t>0.17:39</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3716,16 +2506,6 @@
           <t>0.17:54</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3743,16 +2523,6 @@
           <t>0.09:16</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3770,16 +2540,6 @@
           <t>0.18:11</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3797,16 +2557,6 @@
           <t>0.13:56</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>ToMa</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3824,16 +2574,6 @@
           <t>0.18:05</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3851,16 +2591,6 @@
           <t>0.08:22</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3878,16 +2608,6 @@
           <t>0.18:19</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3905,16 +2625,6 @@
           <t>0.18:09</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3932,16 +2642,6 @@
           <t>0.18:31</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3959,16 +2659,6 @@
           <t>0.18:39</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3986,16 +2676,6 @@
           <t>0.18:24</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4013,16 +2693,6 @@
           <t>0.18:38</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4040,16 +2710,6 @@
           <t>0.17:31</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4067,16 +2727,6 @@
           <t>0.18:31</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4094,16 +2744,6 @@
           <t>0.18:52</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4121,16 +2761,6 @@
           <t>0.18:47</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4148,16 +2778,6 @@
           <t>0.18:59</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4175,16 +2795,6 @@
           <t>0.19:03</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4202,16 +2812,6 @@
           <t>0.19:01</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4229,16 +2829,6 @@
           <t>0.21:59</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>ToMa</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4256,16 +2846,6 @@
           <t>0.22:32</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>ToMa</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4283,16 +2863,6 @@
           <t>0.22:29</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>ToMa</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4310,16 +2880,6 @@
           <t>0.10:28</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>PTCLO</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4335,16 +2895,6 @@
       <c r="C145" t="inlineStr">
         <is>
           <t>0.21:04</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Pomona</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Pomona</t>
         </is>
       </c>
     </row>
